--- a/BOM_TOTAL_PCB.xlsx
+++ b/BOM_TOTAL_PCB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1295A61D-8BCE-4775-812B-2D140EE74CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4650A716-83C1-4DAF-A4C0-15D3B569541C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="151">
   <si>
     <t>No.</t>
   </si>
@@ -482,6 +482,22 @@
   </si>
   <si>
     <t>M3*8十字沉头螺丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telesky旗舰店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*19P 2.54MM直插单排母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2铜制螺母</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2*8十字沉头螺丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,10 +963,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1032,7 +1051,7 @@
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <f t="shared" ref="A3:A34" si="0">ROW()-1</f>
+        <f t="shared" ref="A3:A37" si="0">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -1978,6 +1997,60 @@
         <v>142</v>
       </c>
       <c r="J34" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -1985,6 +2058,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>